--- a/实验5：软件测试评审/他组对本组评审/初评审/对A组_测试需求说明书评审反馈.xlsx
+++ b/实验5：软件测试评审/他组对本组评审/初评审/对A组_测试需求说明书评审反馈.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验5：软件测试评审/他组对本组评审/初评审/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE2B048-3153-AC47-961D-57E4BA7BF29E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0EE3F5-799B-ED44-8D22-8BA7EC139B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="27800" windowHeight="17040" xr2:uid="{3D099F71-FC99-5F44-BCBD-5782C5957A81}"/>
+    <workbookView xWindow="780" yWindow="1360" windowWidth="20700" windowHeight="15560" xr2:uid="{3D099F71-FC99-5F44-BCBD-5782C5957A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
   <si>
     <t>序号</t>
   </si>
@@ -114,18 +114,12 @@
     <t>增加相关测试</t>
   </si>
   <si>
-    <t>“正确的进行了模块的加载“中“的”使用错误</t>
-  </si>
-  <si>
     <t>语病</t>
   </si>
   <si>
     <t>修改为“地”</t>
   </si>
   <si>
-    <t>用例编号与其他不一致</t>
-  </si>
-  <si>
     <t>格式规范性</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>建议测试内容进一步明确</t>
   </si>
   <si>
-    <t>“动态加载模块模块”语义错误</t>
-  </si>
-  <si>
     <t>删掉一个“模块”</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>表17 扩展模块可用性测试</t>
   </si>
   <si>
-    <t>期望结果中“使得消息通知更加便捷、有效”是多余的描述</t>
-  </si>
-  <si>
     <t>去除相关描述</t>
   </si>
   <si>
@@ -244,11 +232,122 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不接受，因为整个软件涉及两个数据库的一致同步，使用时间戳进行ID更新和替换是最保险的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>接受，已修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表5 gRPC数据库有效性测试</t>
+  </si>
+  <si>
+    <t>表7 配置文件管理有效性测试</t>
+  </si>
+  <si>
+    <t>第8页</t>
+  </si>
+  <si>
+    <r>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标号和描述</t>
+    </r>
+  </si>
+  <si>
+    <t>第9页</t>
+  </si>
+  <si>
+    <t>第4页1.1</t>
+  </si>
+  <si>
+    <r>
+      <t>改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“试图允许部署者”</t>
+    </r>
+  </si>
+  <si>
+    <t>第7页3.1</t>
+  </si>
+  <si>
+    <t>第11页TeseCase008</t>
+  </si>
+  <si>
+    <t>接受，已修改为TestCase008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已修改为“地”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已重新该部分用例。
+1.明确用户配置信息由update修改
+2.明确配置字段由add、delet修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已经统一修改为：
+“正确生成配置文件”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已经统一添加句号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已经修改为“允许让部署者...”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已经添加说明
+“比较原有通知模块和拓展后通知模块的可用性，是否进行了提升，是否更加便捷、有效。”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已添加“使用者”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已修改为“动态加载模块”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已统一修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已修改描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表14 客户端数据库有效性测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者进行订阅通知、设置通知属性等功能需求没有被测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受，已补充上下文相关信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格没有标号和描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -285,122 +384,32 @@
       </rPr>
       <t xml:space="preserve"> Email通知有效性测试</t>
     </r>
-  </si>
-  <si>
-    <t>表5 gRPC数据库有效性测试</t>
-  </si>
-  <si>
-    <t>表7 配置文件管理有效性测试</t>
-  </si>
-  <si>
-    <t>第8页</t>
-  </si>
-  <si>
-    <r>
-      <t>添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标号和描述</t>
-    </r>
-  </si>
-  <si>
-    <t>第9页</t>
-  </si>
-  <si>
-    <t>第4页1.1</t>
-  </si>
-  <si>
-    <r>
-      <t>改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“试图允许部署者”</t>
-    </r>
-  </si>
-  <si>
-    <t>第7页3.1</t>
-  </si>
-  <si>
-    <t>第11页TeseCase008</t>
-  </si>
-  <si>
-    <t>接受，已修改为TestCase008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已修改为“地”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已重新该部分用例。
-1.明确用户配置信息由update修改
-2.明确配置字段由add、delet修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已经统一修改为：
-“正确生成配置文件”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已经统一添加句号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已经修改为“允许让部署者...”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已经添加说明
-“比较原有通知模块和拓展后通知模块的可用性，是否进行了提升，是否更加便捷、有效。”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已添加“使用者”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已修改为“动态加载模块”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已统一修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已修改描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表14 客户端数据库有效性测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者进行订阅通知、设置通知属性等功能需求没有被测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“正确的进行了模块的加载“中“的”使用错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号与其他不一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“动态加载模块模块”语义错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果中“使得消息通知更加便捷、有效”是多余的描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不接受，因为整个软件涉及两个数据库的一致同步，使用时间戳进行ID更新和替换是最保险的。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>部分接受：
 1.已添加订阅通知的测试
 2.设置通知属性已有测试用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受，已补充上下文相关信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,50 +534,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0B1C29-7522-7940-BDF5-3A7E760C0B8E}">
-  <dimension ref="A2:J26"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -904,617 +913,617 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="61" customHeight="1">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28" customHeight="1">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="78" customHeight="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" customHeight="1">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="28" customHeight="1">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="61" customHeight="1">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="88" customHeight="1">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32" customHeight="1">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" customHeight="1">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28" customHeight="1">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="68" customHeight="1">
+      <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60" customHeight="1">
+      <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" customHeight="1">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28" customHeight="1">
+      <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="78" customHeight="1">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42" customHeight="1">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28" customHeight="1">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="42" customHeight="1">
+      <c r="A24" s="2">
         <v>19</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="25" customHeight="1">
+      <c r="A25" s="9">
         <v>20</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="75" customHeight="1">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28" customHeight="1">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="11">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="88" customHeight="1">
-      <c r="A13" s="11">
-        <v>9</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32" customHeight="1">
-      <c r="A16" s="4">
-        <v>11</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="45" customHeight="1">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="68" customHeight="1">
-      <c r="A18" s="4">
-        <v>13</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="B25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="60" customHeight="1">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30" customHeight="1">
-      <c r="A20" s="4">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28" customHeight="1">
-      <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="42" customHeight="1">
-      <c r="A22" s="4">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="28" customHeight="1">
-      <c r="A23" s="4">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="42" customHeight="1">
-      <c r="A24" s="4">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="G25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="25" customHeight="1">
-      <c r="A25" s="11">
-        <v>20</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="14"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1555,12 +1564,12 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
